--- a/src/audience_list.xlsx
+++ b/src/audience_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakumashun/src/make_qr/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA440D-B633-3B45-9F39-E51B9C7677D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5DA64D-D86A-9D48-96A3-68AD853533FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="2680" windowWidth="28300" windowHeight="17440" xr2:uid="{2DF7F98E-B4CC-404A-B460-2C131CE14481}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -130,6 +130,29 @@
   </si>
   <si>
     <t>test10</t>
+  </si>
+  <si>
+    <t>座席</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ザセキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-32</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -168,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,13 +214,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +239,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C5C6F1-CAC6-AE43-90D0-C7F691CD1E8E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -533,7 +570,7 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -543,8 +580,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -554,8 +594,11 @@
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -565,8 +608,11 @@
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -576,8 +622,11 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -587,8 +636,11 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -598,8 +650,11 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -609,8 +664,11 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -620,8 +678,11 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -631,8 +692,11 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -642,8 +706,11 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -652,6 +719,9 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
